--- a/biology/Botanique/Madame_Léon_Pain/Madame_Léon_Pain.xlsx
+++ b/biology/Botanique/Madame_Léon_Pain/Madame_Léon_Pain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Madame_L%C3%A9on_Pain</t>
+          <t>Madame_Léon_Pain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Léon Pain' est un cultivar de rosier obtenu en France en 1904[1] par le rosiériste Pierre Guillot[2]. Son succès ne se dément pas depuis plus d'un siècle[3].
+'Madame Léon Pain' est un cultivar de rosier obtenu en France en 1904 par le rosiériste Pierre Guillot. Son succès ne se dément pas depuis plus d'un siècle.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Madame_L%C3%A9on_Pain</t>
+          <t>Madame_Léon_Pain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Madame Léon Pain' est une rose moderne hybride de thé[4], issue du croisement de 'Madame Caroline Testout' (Pernet-Ducher, 1890) x 'Souvenir de Catherine Guillot' (Pierre Guillot, 1895). 
-Les formes arbustives de ce cultivar présentent un port érigé de 90 cm à 100 cm de hauteur et de 90 cm de largeur en moyenne. Le feuillage est vert clair et semi-brillant[2]. Ses grandes fleurs doubles d'un rose léger argenté avec le revers des pétales rose saumoné exhalent un parfum modéré. Elles comportent 17 à 25 pétales généralement en petits bouquets de trois[5] et mesurent plus de 10 cm en moyenne[6]. La floraison est abondante à la fin du printemps ou au début de l'été, plus clairsemée en automne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Madame Léon Pain' est une rose moderne hybride de thé, issue du croisement de 'Madame Caroline Testout' (Pernet-Ducher, 1890) x 'Souvenir de Catherine Guillot' (Pierre Guillot, 1895). 
+Les formes arbustives de ce cultivar présentent un port érigé de 90 cm à 100 cm de hauteur et de 90 cm de largeur en moyenne. Le feuillage est vert clair et semi-brillant. Ses grandes fleurs doubles d'un rose léger argenté avec le revers des pétales rose saumoné exhalent un parfum modéré. Elles comportent 17 à 25 pétales généralement en petits bouquets de trois et mesurent plus de 10 cm en moyenne. La floraison est abondante à la fin du printemps ou au début de l'été, plus clairsemée en automne.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Madame_L%C3%A9on_Pain</t>
+          <t>Madame_Léon_Pain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Madame Léon Pain' tolère la mi-ombre, mais préfère le soleil pour une meilleure floraison. Sa zone de rusticité est de 6b à 9b[2], il s'agit donc d'une plante vigoureuse résistante au froid hivernal; mais son pied a besoin d'être protégé par grand froid.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Madame Léon Pain' tolère la mi-ombre, mais préfère le soleil pour une meilleure floraison. Sa zone de rusticité est de 6b à 9b, il s'agit donc d'une plante vigoureuse résistante au froid hivernal; mais son pied a besoin d'être protégé par grand froid.
 </t>
         </is>
       </c>
